--- a/Planificación ISO II.xlsx
+++ b/Planificación ISO II.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\Desktop\uni\tercero\Primer cuatri\iso2\Practicas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E59B4AC7-3168-4BB5-817A-24D776A5912C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A90279D7-5522-4A0C-9642-DBB114451497}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FEBB686F-E7F7-463F-9849-2F9E03566970}"/>
   </bookViews>
@@ -394,7 +394,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -429,16 +429,19 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -486,10 +489,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -809,7 +812,7 @@
   <dimension ref="A1:FL28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="U22" sqref="U22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1490,28 +1493,28 @@
       <c r="A2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="15" t="s">
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="15"/>
-      <c r="G2" s="12" t="s">
+      <c r="F2" s="13"/>
+      <c r="G2" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="12" t="s">
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
       <c r="R2" s="2"/>
@@ -1668,32 +1671,32 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="15" t="s">
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="31" t="s">
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="O3" s="31"/>
-      <c r="P3" s="31"/>
-      <c r="Q3" s="31"/>
-      <c r="R3" s="31"/>
-      <c r="S3" s="31"/>
-      <c r="T3" s="31"/>
-      <c r="U3" s="32" t="s">
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
+      <c r="U3" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="V3" s="32"/>
-      <c r="W3" s="32"/>
-      <c r="X3" s="32"/>
+      <c r="V3" s="15"/>
+      <c r="W3" s="15"/>
+      <c r="X3" s="15"/>
       <c r="Y3" s="6"/>
       <c r="Z3" s="5"/>
       <c r="AA3" s="1"/>
@@ -1848,27 +1851,27 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
-      <c r="N4" s="14" t="s">
+      <c r="N4" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="15" t="s">
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="R4" s="15"/>
-      <c r="S4" s="12" t="s">
+      <c r="R4" s="13"/>
+      <c r="S4" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="T4" s="12"/>
-      <c r="U4" s="12"/>
-      <c r="V4" s="12"/>
-      <c r="W4" s="12"/>
-      <c r="X4" s="12" t="s">
+      <c r="T4" s="16"/>
+      <c r="U4" s="16"/>
+      <c r="V4" s="16"/>
+      <c r="W4" s="16"/>
+      <c r="X4" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="Y4" s="16"/>
-      <c r="Z4" s="16"/>
+      <c r="Y4" s="17"/>
+      <c r="Z4" s="17"/>
       <c r="AA4" s="1"/>
       <c r="AB4" s="1"/>
       <c r="AC4" s="1"/>
@@ -2032,37 +2035,37 @@
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
       <c r="X5" s="1"/>
-      <c r="Y5" s="14" t="s">
+      <c r="Y5" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="Z5" s="14"/>
-      <c r="AA5" s="14"/>
-      <c r="AB5" s="14"/>
-      <c r="AC5" s="14"/>
-      <c r="AD5" s="14"/>
-      <c r="AE5" s="15" t="s">
+      <c r="Z5" s="12"/>
+      <c r="AA5" s="12"/>
+      <c r="AB5" s="12"/>
+      <c r="AC5" s="12"/>
+      <c r="AD5" s="12"/>
+      <c r="AE5" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="AF5" s="15"/>
-      <c r="AG5" s="15"/>
-      <c r="AH5" s="15"/>
-      <c r="AI5" s="12" t="s">
+      <c r="AF5" s="13"/>
+      <c r="AG5" s="13"/>
+      <c r="AH5" s="13"/>
+      <c r="AI5" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="AJ5" s="12"/>
-      <c r="AK5" s="12"/>
-      <c r="AL5" s="12"/>
-      <c r="AM5" s="12"/>
-      <c r="AN5" s="12"/>
-      <c r="AO5" s="12"/>
-      <c r="AP5" s="16"/>
-      <c r="AQ5" s="16" t="s">
+      <c r="AJ5" s="16"/>
+      <c r="AK5" s="16"/>
+      <c r="AL5" s="16"/>
+      <c r="AM5" s="16"/>
+      <c r="AN5" s="16"/>
+      <c r="AO5" s="16"/>
+      <c r="AP5" s="17"/>
+      <c r="AQ5" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="AR5" s="16"/>
-      <c r="AS5" s="16"/>
-      <c r="AT5" s="16"/>
-      <c r="AU5" s="16"/>
+      <c r="AR5" s="17"/>
+      <c r="AS5" s="17"/>
+      <c r="AT5" s="17"/>
+      <c r="AU5" s="17"/>
       <c r="AV5" s="1"/>
       <c r="AW5" s="6"/>
       <c r="AX5" s="5"/>
@@ -2215,29 +2218,29 @@
       <c r="AF6" s="1"/>
       <c r="AG6" s="6"/>
       <c r="AH6" s="5"/>
-      <c r="AI6" s="14" t="s">
+      <c r="AI6" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="AJ6" s="14"/>
-      <c r="AK6" s="14"/>
-      <c r="AL6" s="14"/>
-      <c r="AM6" s="15" t="s">
+      <c r="AJ6" s="12"/>
+      <c r="AK6" s="12"/>
+      <c r="AL6" s="12"/>
+      <c r="AM6" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="AN6" s="15"/>
-      <c r="AO6" s="15"/>
-      <c r="AP6" s="12" t="s">
+      <c r="AN6" s="13"/>
+      <c r="AO6" s="13"/>
+      <c r="AP6" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="AQ6" s="12"/>
-      <c r="AR6" s="12"/>
-      <c r="AS6" s="12"/>
-      <c r="AT6" s="12"/>
-      <c r="AU6" s="12" t="s">
+      <c r="AQ6" s="16"/>
+      <c r="AR6" s="16"/>
+      <c r="AS6" s="16"/>
+      <c r="AT6" s="16"/>
+      <c r="AU6" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="AV6" s="12"/>
-      <c r="AW6" s="12"/>
+      <c r="AV6" s="16"/>
+      <c r="AW6" s="16"/>
       <c r="AX6" s="5"/>
       <c r="AY6" s="1"/>
       <c r="AZ6" s="1"/>
@@ -2405,44 +2408,44 @@
       <c r="AU7" s="1"/>
       <c r="AV7" s="1"/>
       <c r="AW7" s="6"/>
-      <c r="AX7" s="14" t="s">
+      <c r="AX7" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="AY7" s="14"/>
-      <c r="AZ7" s="14"/>
-      <c r="BA7" s="14"/>
-      <c r="BB7" s="14"/>
-      <c r="BC7" s="14"/>
-      <c r="BD7" s="14"/>
-      <c r="BE7" s="14"/>
-      <c r="BF7" s="15" t="s">
+      <c r="AY7" s="12"/>
+      <c r="AZ7" s="12"/>
+      <c r="BA7" s="12"/>
+      <c r="BB7" s="12"/>
+      <c r="BC7" s="12"/>
+      <c r="BD7" s="12"/>
+      <c r="BE7" s="12"/>
+      <c r="BF7" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="BG7" s="15"/>
-      <c r="BH7" s="15"/>
-      <c r="BI7" s="15"/>
-      <c r="BJ7" s="15"/>
-      <c r="BK7" s="15"/>
-      <c r="BL7" s="12" t="s">
+      <c r="BG7" s="13"/>
+      <c r="BH7" s="13"/>
+      <c r="BI7" s="13"/>
+      <c r="BJ7" s="13"/>
+      <c r="BK7" s="13"/>
+      <c r="BL7" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="BM7" s="12"/>
-      <c r="BN7" s="12"/>
-      <c r="BO7" s="12"/>
-      <c r="BP7" s="12"/>
-      <c r="BQ7" s="12"/>
-      <c r="BR7" s="12"/>
-      <c r="BS7" s="16"/>
-      <c r="BT7" s="16"/>
-      <c r="BU7" s="16"/>
-      <c r="BV7" s="16" t="s">
+      <c r="BM7" s="16"/>
+      <c r="BN7" s="16"/>
+      <c r="BO7" s="16"/>
+      <c r="BP7" s="16"/>
+      <c r="BQ7" s="16"/>
+      <c r="BR7" s="16"/>
+      <c r="BS7" s="17"/>
+      <c r="BT7" s="17"/>
+      <c r="BU7" s="17"/>
+      <c r="BV7" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="BW7" s="16"/>
-      <c r="BX7" s="16"/>
-      <c r="BY7" s="16"/>
-      <c r="BZ7" s="16"/>
-      <c r="CA7" s="16"/>
+      <c r="BW7" s="17"/>
+      <c r="BX7" s="17"/>
+      <c r="BY7" s="17"/>
+      <c r="BZ7" s="17"/>
+      <c r="CA7" s="17"/>
       <c r="CB7" s="1"/>
       <c r="CC7" s="6"/>
       <c r="CD7" s="5"/>
@@ -2592,31 +2595,31 @@
       <c r="BI8" s="1"/>
       <c r="BJ8" s="1"/>
       <c r="BK8" s="1"/>
-      <c r="BL8" s="14" t="s">
+      <c r="BL8" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="BM8" s="14"/>
-      <c r="BN8" s="14"/>
-      <c r="BO8" s="14"/>
-      <c r="BP8" s="15" t="s">
+      <c r="BM8" s="12"/>
+      <c r="BN8" s="12"/>
+      <c r="BO8" s="12"/>
+      <c r="BP8" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="BQ8" s="15"/>
-      <c r="BR8" s="15"/>
-      <c r="BS8" s="12" t="s">
+      <c r="BQ8" s="13"/>
+      <c r="BR8" s="13"/>
+      <c r="BS8" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="BT8" s="12"/>
-      <c r="BU8" s="12"/>
-      <c r="BV8" s="12"/>
-      <c r="BW8" s="12"/>
-      <c r="BX8" s="12"/>
-      <c r="BY8" s="12" t="s">
+      <c r="BT8" s="16"/>
+      <c r="BU8" s="16"/>
+      <c r="BV8" s="16"/>
+      <c r="BW8" s="16"/>
+      <c r="BX8" s="16"/>
+      <c r="BY8" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="BZ8" s="12"/>
-      <c r="CA8" s="12"/>
-      <c r="CB8" s="16"/>
+      <c r="BZ8" s="16"/>
+      <c r="CA8" s="16"/>
+      <c r="CB8" s="17"/>
       <c r="CC8" s="6"/>
       <c r="CD8" s="5"/>
       <c r="CE8" s="1"/>
@@ -2777,26 +2780,26 @@
       <c r="BY9" s="1"/>
       <c r="BZ9" s="1"/>
       <c r="CA9" s="1"/>
-      <c r="CB9" s="14" t="s">
+      <c r="CB9" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="CC9" s="14"/>
-      <c r="CD9" s="14"/>
-      <c r="CE9" s="15" t="s">
+      <c r="CC9" s="12"/>
+      <c r="CD9" s="12"/>
+      <c r="CE9" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="CF9" s="15"/>
-      <c r="CG9" s="16" t="s">
+      <c r="CF9" s="13"/>
+      <c r="CG9" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="CH9" s="16"/>
-      <c r="CI9" s="16"/>
-      <c r="CJ9" s="16"/>
-      <c r="CK9" s="16" t="s">
+      <c r="CH9" s="17"/>
+      <c r="CI9" s="17"/>
+      <c r="CJ9" s="17"/>
+      <c r="CK9" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="CL9" s="16"/>
-      <c r="CM9" s="16"/>
+      <c r="CL9" s="17"/>
+      <c r="CM9" s="17"/>
       <c r="CN9" s="1"/>
       <c r="CO9" s="1"/>
       <c r="CP9" s="1"/>
@@ -2955,39 +2958,39 @@
       <c r="CD10" s="5"/>
       <c r="CE10" s="1"/>
       <c r="CF10" s="1"/>
-      <c r="CG10" s="14" t="s">
+      <c r="CG10" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="CH10" s="14"/>
-      <c r="CI10" s="14"/>
-      <c r="CJ10" s="14"/>
-      <c r="CK10" s="14"/>
-      <c r="CL10" s="14"/>
-      <c r="CM10" s="14"/>
-      <c r="CN10" s="15" t="s">
+      <c r="CH10" s="12"/>
+      <c r="CI10" s="12"/>
+      <c r="CJ10" s="12"/>
+      <c r="CK10" s="12"/>
+      <c r="CL10" s="12"/>
+      <c r="CM10" s="12"/>
+      <c r="CN10" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="CO10" s="15"/>
-      <c r="CP10" s="15"/>
-      <c r="CQ10" s="15"/>
-      <c r="CR10" s="15"/>
-      <c r="CS10" s="12" t="s">
+      <c r="CO10" s="13"/>
+      <c r="CP10" s="13"/>
+      <c r="CQ10" s="13"/>
+      <c r="CR10" s="13"/>
+      <c r="CS10" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="CT10" s="12"/>
-      <c r="CU10" s="12"/>
-      <c r="CV10" s="12"/>
-      <c r="CW10" s="12"/>
-      <c r="CX10" s="12"/>
-      <c r="CY10" s="12"/>
-      <c r="CZ10" s="12"/>
-      <c r="DA10" s="12" t="s">
+      <c r="CT10" s="16"/>
+      <c r="CU10" s="16"/>
+      <c r="CV10" s="16"/>
+      <c r="CW10" s="16"/>
+      <c r="CX10" s="16"/>
+      <c r="CY10" s="16"/>
+      <c r="CZ10" s="16"/>
+      <c r="DA10" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="DB10" s="12"/>
-      <c r="DC10" s="12"/>
-      <c r="DD10" s="12"/>
-      <c r="DE10" s="12"/>
+      <c r="DB10" s="16"/>
+      <c r="DC10" s="16"/>
+      <c r="DD10" s="16"/>
+      <c r="DE10" s="16"/>
       <c r="DF10" s="1"/>
       <c r="DG10" s="1"/>
       <c r="DH10" s="1"/>
@@ -3141,29 +3144,29 @@
       <c r="CQ11" s="1"/>
       <c r="CR11" s="1"/>
       <c r="CS11" s="6"/>
-      <c r="CT11" s="14" t="s">
+      <c r="CT11" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="CU11" s="14"/>
-      <c r="CV11" s="14"/>
-      <c r="CW11" s="14"/>
-      <c r="CX11" s="15" t="s">
+      <c r="CU11" s="12"/>
+      <c r="CV11" s="12"/>
+      <c r="CW11" s="12"/>
+      <c r="CX11" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="CY11" s="15"/>
-      <c r="CZ11" s="15"/>
-      <c r="DA11" s="12" t="s">
+      <c r="CY11" s="13"/>
+      <c r="CZ11" s="13"/>
+      <c r="DA11" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="DB11" s="12"/>
-      <c r="DC11" s="12"/>
-      <c r="DD11" s="12"/>
-      <c r="DE11" s="12"/>
-      <c r="DF11" s="12" t="s">
+      <c r="DB11" s="16"/>
+      <c r="DC11" s="16"/>
+      <c r="DD11" s="16"/>
+      <c r="DE11" s="16"/>
+      <c r="DF11" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="DG11" s="12"/>
-      <c r="DH11" s="12"/>
+      <c r="DG11" s="16"/>
+      <c r="DH11" s="16"/>
       <c r="DI11" s="6"/>
       <c r="DJ11" s="5"/>
       <c r="DK11" s="1"/>
@@ -3326,34 +3329,34 @@
       <c r="DC12" s="1"/>
       <c r="DD12" s="1"/>
       <c r="DE12" s="1"/>
-      <c r="DF12" s="13"/>
-      <c r="DG12" s="13"/>
-      <c r="DH12" s="13"/>
-      <c r="DI12" s="14" t="s">
+      <c r="DF12" s="32"/>
+      <c r="DG12" s="32"/>
+      <c r="DH12" s="32"/>
+      <c r="DI12" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="DJ12" s="14"/>
-      <c r="DK12" s="14"/>
-      <c r="DL12" s="14"/>
-      <c r="DM12" s="15" t="s">
+      <c r="DJ12" s="12"/>
+      <c r="DK12" s="12"/>
+      <c r="DL12" s="12"/>
+      <c r="DM12" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="DN12" s="15"/>
-      <c r="DO12" s="15"/>
-      <c r="DP12" s="12" t="s">
+      <c r="DN12" s="13"/>
+      <c r="DO12" s="13"/>
+      <c r="DP12" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="DQ12" s="12"/>
-      <c r="DR12" s="12"/>
-      <c r="DS12" s="12"/>
-      <c r="DT12" s="12"/>
-      <c r="DU12" s="12"/>
-      <c r="DV12" s="12" t="s">
+      <c r="DQ12" s="16"/>
+      <c r="DR12" s="16"/>
+      <c r="DS12" s="16"/>
+      <c r="DT12" s="16"/>
+      <c r="DU12" s="16"/>
+      <c r="DV12" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="DW12" s="12"/>
-      <c r="DX12" s="12"/>
-      <c r="DY12" s="12"/>
+      <c r="DW12" s="16"/>
+      <c r="DX12" s="16"/>
+      <c r="DY12" s="16"/>
       <c r="DZ12" s="5"/>
       <c r="EA12" s="1"/>
       <c r="EB12" s="1"/>
@@ -3554,536 +3557,536 @@
     </row>
     <row r="14" spans="1:168" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
-      <c r="B14" s="17">
+      <c r="B14" s="18">
         <v>20</v>
       </c>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17">
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18">
         <v>21</v>
       </c>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17"/>
-      <c r="R14" s="30">
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
+      <c r="O14" s="18"/>
+      <c r="P14" s="18"/>
+      <c r="Q14" s="18"/>
+      <c r="R14" s="31">
+        <v>22</v>
+      </c>
+      <c r="S14" s="31"/>
+      <c r="T14" s="31"/>
+      <c r="U14" s="31"/>
+      <c r="V14" s="31"/>
+      <c r="W14" s="31"/>
+      <c r="X14" s="31"/>
+      <c r="Y14" s="31"/>
+      <c r="Z14" s="18">
         <v>23</v>
       </c>
-      <c r="S14" s="30"/>
-      <c r="T14" s="30"/>
-      <c r="U14" s="30"/>
-      <c r="V14" s="30"/>
-      <c r="W14" s="30"/>
-      <c r="X14" s="30"/>
-      <c r="Y14" s="30"/>
-      <c r="Z14" s="17">
+      <c r="AA14" s="18"/>
+      <c r="AB14" s="18"/>
+      <c r="AC14" s="18"/>
+      <c r="AD14" s="18"/>
+      <c r="AE14" s="18"/>
+      <c r="AF14" s="18"/>
+      <c r="AG14" s="18"/>
+      <c r="AH14" s="18">
         <v>24</v>
       </c>
-      <c r="AA14" s="17"/>
-      <c r="AB14" s="17"/>
-      <c r="AC14" s="17"/>
-      <c r="AD14" s="17"/>
-      <c r="AE14" s="17"/>
-      <c r="AF14" s="17"/>
-      <c r="AG14" s="17"/>
-      <c r="AH14" s="17">
+      <c r="AI14" s="18"/>
+      <c r="AJ14" s="18"/>
+      <c r="AK14" s="18"/>
+      <c r="AL14" s="18"/>
+      <c r="AM14" s="18"/>
+      <c r="AN14" s="18"/>
+      <c r="AO14" s="18"/>
+      <c r="AP14" s="18">
         <v>27</v>
       </c>
-      <c r="AI14" s="17"/>
-      <c r="AJ14" s="17"/>
-      <c r="AK14" s="17"/>
-      <c r="AL14" s="17"/>
-      <c r="AM14" s="17"/>
-      <c r="AN14" s="17"/>
-      <c r="AO14" s="17"/>
-      <c r="AP14" s="17">
+      <c r="AQ14" s="18"/>
+      <c r="AR14" s="18"/>
+      <c r="AS14" s="18"/>
+      <c r="AT14" s="18"/>
+      <c r="AU14" s="18"/>
+      <c r="AV14" s="18"/>
+      <c r="AW14" s="18"/>
+      <c r="AX14" s="18">
         <v>28</v>
       </c>
-      <c r="AQ14" s="17"/>
-      <c r="AR14" s="17"/>
-      <c r="AS14" s="17"/>
-      <c r="AT14" s="17"/>
-      <c r="AU14" s="17"/>
-      <c r="AV14" s="17"/>
-      <c r="AW14" s="17"/>
-      <c r="AX14" s="17">
+      <c r="AY14" s="18"/>
+      <c r="AZ14" s="18"/>
+      <c r="BA14" s="18"/>
+      <c r="BB14" s="18"/>
+      <c r="BC14" s="18"/>
+      <c r="BD14" s="18"/>
+      <c r="BE14" s="18"/>
+      <c r="BF14" s="18">
         <v>29</v>
       </c>
-      <c r="AY14" s="17"/>
-      <c r="AZ14" s="17"/>
-      <c r="BA14" s="17"/>
-      <c r="BB14" s="17"/>
-      <c r="BC14" s="17"/>
-      <c r="BD14" s="17"/>
-      <c r="BE14" s="17"/>
-      <c r="BF14" s="17">
+      <c r="BG14" s="18"/>
+      <c r="BH14" s="18"/>
+      <c r="BI14" s="18"/>
+      <c r="BJ14" s="18"/>
+      <c r="BK14" s="18"/>
+      <c r="BL14" s="18"/>
+      <c r="BM14" s="18"/>
+      <c r="BN14" s="18">
         <v>30</v>
       </c>
-      <c r="BG14" s="17"/>
-      <c r="BH14" s="17"/>
-      <c r="BI14" s="17"/>
-      <c r="BJ14" s="17"/>
-      <c r="BK14" s="17"/>
-      <c r="BL14" s="17"/>
-      <c r="BM14" s="17"/>
-      <c r="BN14" s="17">
+      <c r="BO14" s="18"/>
+      <c r="BP14" s="18"/>
+      <c r="BQ14" s="18"/>
+      <c r="BR14" s="18"/>
+      <c r="BS14" s="18"/>
+      <c r="BT14" s="18"/>
+      <c r="BU14" s="18"/>
+      <c r="BV14" s="18">
         <v>1</v>
       </c>
-      <c r="BO14" s="17"/>
-      <c r="BP14" s="17"/>
-      <c r="BQ14" s="17"/>
-      <c r="BR14" s="17"/>
-      <c r="BS14" s="17"/>
-      <c r="BT14" s="17"/>
-      <c r="BU14" s="17"/>
-      <c r="BV14" s="17">
+      <c r="BW14" s="18"/>
+      <c r="BX14" s="18"/>
+      <c r="BY14" s="18"/>
+      <c r="BZ14" s="18"/>
+      <c r="CA14" s="18"/>
+      <c r="CB14" s="18"/>
+      <c r="CC14" s="18"/>
+      <c r="CD14" s="18">
         <v>4</v>
       </c>
-      <c r="BW14" s="17"/>
-      <c r="BX14" s="17"/>
-      <c r="BY14" s="17"/>
-      <c r="BZ14" s="17"/>
-      <c r="CA14" s="17"/>
-      <c r="CB14" s="17"/>
-      <c r="CC14" s="17"/>
-      <c r="CD14" s="17">
+      <c r="CE14" s="18"/>
+      <c r="CF14" s="18"/>
+      <c r="CG14" s="18"/>
+      <c r="CH14" s="18"/>
+      <c r="CI14" s="18"/>
+      <c r="CJ14" s="18"/>
+      <c r="CK14" s="18"/>
+      <c r="CL14" s="18">
         <v>5</v>
       </c>
-      <c r="CE14" s="17"/>
-      <c r="CF14" s="17"/>
-      <c r="CG14" s="17"/>
-      <c r="CH14" s="17"/>
-      <c r="CI14" s="17"/>
-      <c r="CJ14" s="17"/>
-      <c r="CK14" s="17"/>
-      <c r="CL14" s="17">
+      <c r="CM14" s="18"/>
+      <c r="CN14" s="18"/>
+      <c r="CO14" s="18"/>
+      <c r="CP14" s="18"/>
+      <c r="CQ14" s="18"/>
+      <c r="CR14" s="18"/>
+      <c r="CS14" s="18"/>
+      <c r="CT14" s="18">
         <v>7</v>
       </c>
-      <c r="CM14" s="17"/>
-      <c r="CN14" s="17"/>
-      <c r="CO14" s="17"/>
-      <c r="CP14" s="17"/>
-      <c r="CQ14" s="17"/>
-      <c r="CR14" s="17"/>
-      <c r="CS14" s="17"/>
-      <c r="CT14" s="17">
+      <c r="CU14" s="18"/>
+      <c r="CV14" s="18"/>
+      <c r="CW14" s="18"/>
+      <c r="CX14" s="18"/>
+      <c r="CY14" s="18"/>
+      <c r="CZ14" s="18"/>
+      <c r="DA14" s="18"/>
+      <c r="DB14" s="18">
         <v>11</v>
       </c>
-      <c r="CU14" s="17"/>
-      <c r="CV14" s="17"/>
-      <c r="CW14" s="17"/>
-      <c r="CX14" s="17"/>
-      <c r="CY14" s="17"/>
-      <c r="CZ14" s="17"/>
-      <c r="DA14" s="17"/>
-      <c r="DB14" s="17">
+      <c r="DC14" s="18"/>
+      <c r="DD14" s="18"/>
+      <c r="DE14" s="18"/>
+      <c r="DF14" s="18"/>
+      <c r="DG14" s="18"/>
+      <c r="DH14" s="18"/>
+      <c r="DI14" s="18"/>
+      <c r="DJ14" s="18">
         <v>12</v>
       </c>
-      <c r="DC14" s="17"/>
-      <c r="DD14" s="17"/>
-      <c r="DE14" s="17"/>
-      <c r="DF14" s="17"/>
-      <c r="DG14" s="17"/>
-      <c r="DH14" s="17"/>
-      <c r="DI14" s="17"/>
-      <c r="DJ14" s="17">
+      <c r="DK14" s="18"/>
+      <c r="DL14" s="18"/>
+      <c r="DM14" s="18"/>
+      <c r="DN14" s="18"/>
+      <c r="DO14" s="18"/>
+      <c r="DP14" s="18"/>
+      <c r="DQ14" s="18"/>
+      <c r="DR14" s="18">
         <v>13</v>
       </c>
-      <c r="DK14" s="17"/>
-      <c r="DL14" s="17"/>
-      <c r="DM14" s="17"/>
-      <c r="DN14" s="17"/>
-      <c r="DO14" s="17"/>
-      <c r="DP14" s="17"/>
-      <c r="DQ14" s="17"/>
-      <c r="DR14" s="17">
+      <c r="DS14" s="18"/>
+      <c r="DT14" s="18"/>
+      <c r="DU14" s="18"/>
+      <c r="DV14" s="18"/>
+      <c r="DW14" s="18"/>
+      <c r="DX14" s="18"/>
+      <c r="DY14" s="18"/>
+      <c r="DZ14" s="18">
         <v>14</v>
       </c>
-      <c r="DS14" s="17"/>
-      <c r="DT14" s="17"/>
-      <c r="DU14" s="17"/>
-      <c r="DV14" s="17"/>
-      <c r="DW14" s="17"/>
-      <c r="DX14" s="17"/>
-      <c r="DY14" s="17"/>
-      <c r="DZ14" s="17">
+      <c r="EA14" s="18"/>
+      <c r="EB14" s="18"/>
+      <c r="EC14" s="18"/>
+      <c r="ED14" s="18"/>
+      <c r="EE14" s="18"/>
+      <c r="EF14" s="18"/>
+      <c r="EG14" s="18"/>
+      <c r="EH14" s="18">
         <v>15</v>
       </c>
-      <c r="EA14" s="17"/>
-      <c r="EB14" s="17"/>
-      <c r="EC14" s="17"/>
-      <c r="ED14" s="17"/>
-      <c r="EE14" s="17"/>
-      <c r="EF14" s="17"/>
-      <c r="EG14" s="17"/>
-      <c r="EH14" s="17">
+      <c r="EI14" s="18"/>
+      <c r="EJ14" s="18"/>
+      <c r="EK14" s="18"/>
+      <c r="EL14" s="18"/>
+      <c r="EM14" s="18"/>
+      <c r="EN14" s="18"/>
+      <c r="EO14" s="18"/>
+      <c r="EP14" s="18">
         <v>18</v>
       </c>
-      <c r="EI14" s="17"/>
-      <c r="EJ14" s="17"/>
-      <c r="EK14" s="17"/>
-      <c r="EL14" s="17"/>
-      <c r="EM14" s="17"/>
-      <c r="EN14" s="17"/>
-      <c r="EO14" s="17"/>
-      <c r="EP14" s="17">
+      <c r="EQ14" s="18"/>
+      <c r="ER14" s="18"/>
+      <c r="ES14" s="18"/>
+      <c r="ET14" s="18"/>
+      <c r="EU14" s="18"/>
+      <c r="EV14" s="18"/>
+      <c r="EW14" s="18"/>
+      <c r="EX14" s="18">
         <v>19</v>
       </c>
-      <c r="EQ14" s="17"/>
-      <c r="ER14" s="17"/>
-      <c r="ES14" s="17"/>
-      <c r="ET14" s="17"/>
-      <c r="EU14" s="17"/>
-      <c r="EV14" s="17"/>
-      <c r="EW14" s="17"/>
-      <c r="EX14" s="17">
-        <v>20</v>
-      </c>
-      <c r="EY14" s="17"/>
-      <c r="EZ14" s="17"/>
-      <c r="FA14" s="17"/>
-      <c r="FB14" s="17"/>
-      <c r="FC14" s="17"/>
-      <c r="FD14" s="17"/>
-      <c r="FE14" s="17"/>
+      <c r="EY14" s="18"/>
+      <c r="EZ14" s="18"/>
+      <c r="FA14" s="18"/>
+      <c r="FB14" s="18"/>
+      <c r="FC14" s="18"/>
+      <c r="FD14" s="18"/>
+      <c r="FE14" s="18"/>
     </row>
     <row r="15" spans="1:168" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19"/>
-      <c r="M15" s="19"/>
-      <c r="N15" s="19"/>
-      <c r="O15" s="19"/>
-      <c r="P15" s="19"/>
-      <c r="Q15" s="19"/>
-      <c r="R15" s="19"/>
-      <c r="S15" s="19"/>
-      <c r="T15" s="19"/>
-      <c r="U15" s="19"/>
-      <c r="V15" s="19"/>
-      <c r="W15" s="19"/>
-      <c r="X15" s="19"/>
-      <c r="Y15" s="19"/>
-      <c r="Z15" s="19"/>
-      <c r="AA15" s="19"/>
-      <c r="AB15" s="19"/>
-      <c r="AC15" s="19"/>
-      <c r="AD15" s="19"/>
-      <c r="AE15" s="19"/>
-      <c r="AF15" s="19"/>
-      <c r="AG15" s="19"/>
-      <c r="AH15" s="19"/>
-      <c r="AI15" s="19"/>
-      <c r="AJ15" s="19"/>
-      <c r="AK15" s="19"/>
-      <c r="AL15" s="19"/>
-      <c r="AM15" s="19"/>
-      <c r="AN15" s="19"/>
-      <c r="AO15" s="19"/>
-      <c r="AP15" s="19"/>
-      <c r="AQ15" s="19"/>
-      <c r="AR15" s="19"/>
-      <c r="AS15" s="19"/>
-      <c r="AT15" s="19"/>
-      <c r="AU15" s="19"/>
-      <c r="AV15" s="19"/>
-      <c r="AW15" s="19"/>
-      <c r="AX15" s="19"/>
-      <c r="AY15" s="19"/>
-      <c r="AZ15" s="19"/>
-      <c r="BA15" s="19"/>
-      <c r="BB15" s="19"/>
-      <c r="BC15" s="19"/>
-      <c r="BD15" s="19"/>
-      <c r="BE15" s="19"/>
-      <c r="BF15" s="19"/>
-      <c r="BG15" s="19"/>
-      <c r="BH15" s="19"/>
-      <c r="BI15" s="19"/>
-      <c r="BJ15" s="19"/>
-      <c r="BK15" s="19"/>
-      <c r="BL15" s="19"/>
-      <c r="BM15" s="20"/>
-      <c r="BN15" s="24" t="s">
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="20"/>
+      <c r="P15" s="20"/>
+      <c r="Q15" s="20"/>
+      <c r="R15" s="20"/>
+      <c r="S15" s="20"/>
+      <c r="T15" s="20"/>
+      <c r="U15" s="20"/>
+      <c r="V15" s="20"/>
+      <c r="W15" s="20"/>
+      <c r="X15" s="20"/>
+      <c r="Y15" s="20"/>
+      <c r="Z15" s="20"/>
+      <c r="AA15" s="20"/>
+      <c r="AB15" s="20"/>
+      <c r="AC15" s="20"/>
+      <c r="AD15" s="20"/>
+      <c r="AE15" s="20"/>
+      <c r="AF15" s="20"/>
+      <c r="AG15" s="20"/>
+      <c r="AH15" s="20"/>
+      <c r="AI15" s="20"/>
+      <c r="AJ15" s="20"/>
+      <c r="AK15" s="20"/>
+      <c r="AL15" s="20"/>
+      <c r="AM15" s="20"/>
+      <c r="AN15" s="20"/>
+      <c r="AO15" s="20"/>
+      <c r="AP15" s="20"/>
+      <c r="AQ15" s="20"/>
+      <c r="AR15" s="20"/>
+      <c r="AS15" s="20"/>
+      <c r="AT15" s="20"/>
+      <c r="AU15" s="20"/>
+      <c r="AV15" s="20"/>
+      <c r="AW15" s="20"/>
+      <c r="AX15" s="20"/>
+      <c r="AY15" s="20"/>
+      <c r="AZ15" s="20"/>
+      <c r="BA15" s="20"/>
+      <c r="BB15" s="20"/>
+      <c r="BC15" s="20"/>
+      <c r="BD15" s="20"/>
+      <c r="BE15" s="20"/>
+      <c r="BF15" s="20"/>
+      <c r="BG15" s="20"/>
+      <c r="BH15" s="20"/>
+      <c r="BI15" s="20"/>
+      <c r="BJ15" s="20"/>
+      <c r="BK15" s="20"/>
+      <c r="BL15" s="20"/>
+      <c r="BM15" s="21"/>
+      <c r="BN15" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="BO15" s="25"/>
-      <c r="BP15" s="25"/>
-      <c r="BQ15" s="25"/>
-      <c r="BR15" s="25"/>
-      <c r="BS15" s="25"/>
-      <c r="BT15" s="25"/>
-      <c r="BU15" s="25"/>
-      <c r="BV15" s="25"/>
-      <c r="BW15" s="25"/>
-      <c r="BX15" s="25"/>
-      <c r="BY15" s="25"/>
-      <c r="BZ15" s="25"/>
-      <c r="CA15" s="25"/>
-      <c r="CB15" s="25"/>
-      <c r="CC15" s="25"/>
-      <c r="CD15" s="25"/>
-      <c r="CE15" s="25"/>
-      <c r="CF15" s="25"/>
-      <c r="CG15" s="25"/>
-      <c r="CH15" s="25"/>
-      <c r="CI15" s="25"/>
-      <c r="CJ15" s="25"/>
-      <c r="CK15" s="25"/>
-      <c r="CL15" s="25"/>
-      <c r="CM15" s="25"/>
-      <c r="CN15" s="25"/>
-      <c r="CO15" s="25"/>
-      <c r="CP15" s="25"/>
-      <c r="CQ15" s="25"/>
-      <c r="CR15" s="25"/>
-      <c r="CS15" s="25"/>
-      <c r="CT15" s="25"/>
-      <c r="CU15" s="25"/>
-      <c r="CV15" s="25"/>
-      <c r="CW15" s="25"/>
-      <c r="CX15" s="25"/>
-      <c r="CY15" s="25"/>
-      <c r="CZ15" s="25"/>
-      <c r="DA15" s="25"/>
-      <c r="DB15" s="25"/>
-      <c r="DC15" s="25"/>
-      <c r="DD15" s="25"/>
-      <c r="DE15" s="25"/>
-      <c r="DF15" s="25"/>
-      <c r="DG15" s="25"/>
-      <c r="DH15" s="25"/>
-      <c r="DI15" s="25"/>
-      <c r="DJ15" s="25"/>
-      <c r="DK15" s="25"/>
-      <c r="DL15" s="25"/>
-      <c r="DM15" s="25"/>
-      <c r="DN15" s="25"/>
-      <c r="DO15" s="25"/>
-      <c r="DP15" s="25"/>
-      <c r="DQ15" s="25"/>
-      <c r="DR15" s="25"/>
-      <c r="DS15" s="25"/>
-      <c r="DT15" s="25"/>
-      <c r="DU15" s="25"/>
-      <c r="DV15" s="25"/>
-      <c r="DW15" s="25"/>
-      <c r="DX15" s="25"/>
-      <c r="DY15" s="25"/>
-      <c r="DZ15" s="25"/>
-      <c r="EA15" s="25"/>
-      <c r="EB15" s="25"/>
-      <c r="EC15" s="25"/>
-      <c r="ED15" s="25"/>
-      <c r="EE15" s="25"/>
-      <c r="EF15" s="25"/>
-      <c r="EG15" s="25"/>
-      <c r="EH15" s="25"/>
-      <c r="EI15" s="25"/>
-      <c r="EJ15" s="25"/>
-      <c r="EK15" s="25"/>
-      <c r="EL15" s="25"/>
-      <c r="EM15" s="25"/>
-      <c r="EN15" s="25"/>
-      <c r="EO15" s="25"/>
-      <c r="EP15" s="25"/>
-      <c r="EQ15" s="25"/>
-      <c r="ER15" s="25"/>
-      <c r="ES15" s="25"/>
-      <c r="ET15" s="25"/>
-      <c r="EU15" s="25"/>
-      <c r="EV15" s="25"/>
-      <c r="EW15" s="25"/>
-      <c r="EX15" s="25"/>
-      <c r="EY15" s="25"/>
-      <c r="EZ15" s="25"/>
-      <c r="FA15" s="25"/>
-      <c r="FB15" s="25"/>
-      <c r="FC15" s="25"/>
-      <c r="FD15" s="25"/>
-      <c r="FE15" s="26"/>
+      <c r="BO15" s="26"/>
+      <c r="BP15" s="26"/>
+      <c r="BQ15" s="26"/>
+      <c r="BR15" s="26"/>
+      <c r="BS15" s="26"/>
+      <c r="BT15" s="26"/>
+      <c r="BU15" s="26"/>
+      <c r="BV15" s="26"/>
+      <c r="BW15" s="26"/>
+      <c r="BX15" s="26"/>
+      <c r="BY15" s="26"/>
+      <c r="BZ15" s="26"/>
+      <c r="CA15" s="26"/>
+      <c r="CB15" s="26"/>
+      <c r="CC15" s="26"/>
+      <c r="CD15" s="26"/>
+      <c r="CE15" s="26"/>
+      <c r="CF15" s="26"/>
+      <c r="CG15" s="26"/>
+      <c r="CH15" s="26"/>
+      <c r="CI15" s="26"/>
+      <c r="CJ15" s="26"/>
+      <c r="CK15" s="26"/>
+      <c r="CL15" s="26"/>
+      <c r="CM15" s="26"/>
+      <c r="CN15" s="26"/>
+      <c r="CO15" s="26"/>
+      <c r="CP15" s="26"/>
+      <c r="CQ15" s="26"/>
+      <c r="CR15" s="26"/>
+      <c r="CS15" s="26"/>
+      <c r="CT15" s="26"/>
+      <c r="CU15" s="26"/>
+      <c r="CV15" s="26"/>
+      <c r="CW15" s="26"/>
+      <c r="CX15" s="26"/>
+      <c r="CY15" s="26"/>
+      <c r="CZ15" s="26"/>
+      <c r="DA15" s="26"/>
+      <c r="DB15" s="26"/>
+      <c r="DC15" s="26"/>
+      <c r="DD15" s="26"/>
+      <c r="DE15" s="26"/>
+      <c r="DF15" s="26"/>
+      <c r="DG15" s="26"/>
+      <c r="DH15" s="26"/>
+      <c r="DI15" s="26"/>
+      <c r="DJ15" s="26"/>
+      <c r="DK15" s="26"/>
+      <c r="DL15" s="26"/>
+      <c r="DM15" s="26"/>
+      <c r="DN15" s="26"/>
+      <c r="DO15" s="26"/>
+      <c r="DP15" s="26"/>
+      <c r="DQ15" s="26"/>
+      <c r="DR15" s="26"/>
+      <c r="DS15" s="26"/>
+      <c r="DT15" s="26"/>
+      <c r="DU15" s="26"/>
+      <c r="DV15" s="26"/>
+      <c r="DW15" s="26"/>
+      <c r="DX15" s="26"/>
+      <c r="DY15" s="26"/>
+      <c r="DZ15" s="26"/>
+      <c r="EA15" s="26"/>
+      <c r="EB15" s="26"/>
+      <c r="EC15" s="26"/>
+      <c r="ED15" s="26"/>
+      <c r="EE15" s="26"/>
+      <c r="EF15" s="26"/>
+      <c r="EG15" s="26"/>
+      <c r="EH15" s="26"/>
+      <c r="EI15" s="26"/>
+      <c r="EJ15" s="26"/>
+      <c r="EK15" s="26"/>
+      <c r="EL15" s="26"/>
+      <c r="EM15" s="26"/>
+      <c r="EN15" s="26"/>
+      <c r="EO15" s="26"/>
+      <c r="EP15" s="26"/>
+      <c r="EQ15" s="26"/>
+      <c r="ER15" s="26"/>
+      <c r="ES15" s="26"/>
+      <c r="ET15" s="26"/>
+      <c r="EU15" s="26"/>
+      <c r="EV15" s="26"/>
+      <c r="EW15" s="26"/>
+      <c r="EX15" s="26"/>
+      <c r="EY15" s="26"/>
+      <c r="EZ15" s="26"/>
+      <c r="FA15" s="26"/>
+      <c r="FB15" s="26"/>
+      <c r="FC15" s="26"/>
+      <c r="FD15" s="26"/>
+      <c r="FE15" s="27"/>
     </row>
     <row r="16" spans="1:168" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="22"/>
-      <c r="M16" s="22"/>
-      <c r="N16" s="22"/>
-      <c r="O16" s="22"/>
-      <c r="P16" s="22"/>
-      <c r="Q16" s="22"/>
-      <c r="R16" s="22"/>
-      <c r="S16" s="22"/>
-      <c r="T16" s="22"/>
-      <c r="U16" s="22"/>
-      <c r="V16" s="22"/>
-      <c r="W16" s="22"/>
-      <c r="X16" s="22"/>
-      <c r="Y16" s="22"/>
-      <c r="Z16" s="22"/>
-      <c r="AA16" s="22"/>
-      <c r="AB16" s="22"/>
-      <c r="AC16" s="22"/>
-      <c r="AD16" s="22"/>
-      <c r="AE16" s="22"/>
-      <c r="AF16" s="22"/>
-      <c r="AG16" s="22"/>
-      <c r="AH16" s="22"/>
-      <c r="AI16" s="22"/>
-      <c r="AJ16" s="22"/>
-      <c r="AK16" s="22"/>
-      <c r="AL16" s="22"/>
-      <c r="AM16" s="22"/>
-      <c r="AN16" s="22"/>
-      <c r="AO16" s="22"/>
-      <c r="AP16" s="22"/>
-      <c r="AQ16" s="22"/>
-      <c r="AR16" s="22"/>
-      <c r="AS16" s="22"/>
-      <c r="AT16" s="22"/>
-      <c r="AU16" s="22"/>
-      <c r="AV16" s="22"/>
-      <c r="AW16" s="22"/>
-      <c r="AX16" s="22"/>
-      <c r="AY16" s="22"/>
-      <c r="AZ16" s="22"/>
-      <c r="BA16" s="22"/>
-      <c r="BB16" s="22"/>
-      <c r="BC16" s="22"/>
-      <c r="BD16" s="22"/>
-      <c r="BE16" s="22"/>
-      <c r="BF16" s="22"/>
-      <c r="BG16" s="22"/>
-      <c r="BH16" s="22"/>
-      <c r="BI16" s="22"/>
-      <c r="BJ16" s="22"/>
-      <c r="BK16" s="22"/>
-      <c r="BL16" s="22"/>
-      <c r="BM16" s="23"/>
-      <c r="BN16" s="27"/>
-      <c r="BO16" s="28"/>
-      <c r="BP16" s="28"/>
-      <c r="BQ16" s="28"/>
-      <c r="BR16" s="28"/>
-      <c r="BS16" s="28"/>
-      <c r="BT16" s="28"/>
-      <c r="BU16" s="28"/>
-      <c r="BV16" s="28"/>
-      <c r="BW16" s="28"/>
-      <c r="BX16" s="28"/>
-      <c r="BY16" s="28"/>
-      <c r="BZ16" s="28"/>
-      <c r="CA16" s="28"/>
-      <c r="CB16" s="28"/>
-      <c r="CC16" s="28"/>
-      <c r="CD16" s="28"/>
-      <c r="CE16" s="28"/>
-      <c r="CF16" s="28"/>
-      <c r="CG16" s="28"/>
-      <c r="CH16" s="28"/>
-      <c r="CI16" s="28"/>
-      <c r="CJ16" s="28"/>
-      <c r="CK16" s="28"/>
-      <c r="CL16" s="28"/>
-      <c r="CM16" s="28"/>
-      <c r="CN16" s="28"/>
-      <c r="CO16" s="28"/>
-      <c r="CP16" s="28"/>
-      <c r="CQ16" s="28"/>
-      <c r="CR16" s="28"/>
-      <c r="CS16" s="28"/>
-      <c r="CT16" s="28"/>
-      <c r="CU16" s="28"/>
-      <c r="CV16" s="28"/>
-      <c r="CW16" s="28"/>
-      <c r="CX16" s="28"/>
-      <c r="CY16" s="28"/>
-      <c r="CZ16" s="28"/>
-      <c r="DA16" s="28"/>
-      <c r="DB16" s="28"/>
-      <c r="DC16" s="28"/>
-      <c r="DD16" s="28"/>
-      <c r="DE16" s="28"/>
-      <c r="DF16" s="28"/>
-      <c r="DG16" s="28"/>
-      <c r="DH16" s="28"/>
-      <c r="DI16" s="28"/>
-      <c r="DJ16" s="28"/>
-      <c r="DK16" s="28"/>
-      <c r="DL16" s="28"/>
-      <c r="DM16" s="28"/>
-      <c r="DN16" s="28"/>
-      <c r="DO16" s="28"/>
-      <c r="DP16" s="28"/>
-      <c r="DQ16" s="28"/>
-      <c r="DR16" s="28"/>
-      <c r="DS16" s="28"/>
-      <c r="DT16" s="28"/>
-      <c r="DU16" s="28"/>
-      <c r="DV16" s="28"/>
-      <c r="DW16" s="28"/>
-      <c r="DX16" s="28"/>
-      <c r="DY16" s="28"/>
-      <c r="DZ16" s="28"/>
-      <c r="EA16" s="28"/>
-      <c r="EB16" s="28"/>
-      <c r="EC16" s="28"/>
-      <c r="ED16" s="28"/>
-      <c r="EE16" s="28"/>
-      <c r="EF16" s="28"/>
-      <c r="EG16" s="28"/>
-      <c r="EH16" s="28"/>
-      <c r="EI16" s="28"/>
-      <c r="EJ16" s="28"/>
-      <c r="EK16" s="28"/>
-      <c r="EL16" s="28"/>
-      <c r="EM16" s="28"/>
-      <c r="EN16" s="28"/>
-      <c r="EO16" s="28"/>
-      <c r="EP16" s="28"/>
-      <c r="EQ16" s="28"/>
-      <c r="ER16" s="28"/>
-      <c r="ES16" s="28"/>
-      <c r="ET16" s="28"/>
-      <c r="EU16" s="28"/>
-      <c r="EV16" s="28"/>
-      <c r="EW16" s="28"/>
-      <c r="EX16" s="28"/>
-      <c r="EY16" s="28"/>
-      <c r="EZ16" s="28"/>
-      <c r="FA16" s="28"/>
-      <c r="FB16" s="28"/>
-      <c r="FC16" s="28"/>
-      <c r="FD16" s="28"/>
-      <c r="FE16" s="29"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="23"/>
+      <c r="R16" s="23"/>
+      <c r="S16" s="23"/>
+      <c r="T16" s="23"/>
+      <c r="U16" s="23"/>
+      <c r="V16" s="23"/>
+      <c r="W16" s="23"/>
+      <c r="X16" s="23"/>
+      <c r="Y16" s="23"/>
+      <c r="Z16" s="23"/>
+      <c r="AA16" s="23"/>
+      <c r="AB16" s="23"/>
+      <c r="AC16" s="23"/>
+      <c r="AD16" s="23"/>
+      <c r="AE16" s="23"/>
+      <c r="AF16" s="23"/>
+      <c r="AG16" s="23"/>
+      <c r="AH16" s="23"/>
+      <c r="AI16" s="23"/>
+      <c r="AJ16" s="23"/>
+      <c r="AK16" s="23"/>
+      <c r="AL16" s="23"/>
+      <c r="AM16" s="23"/>
+      <c r="AN16" s="23"/>
+      <c r="AO16" s="23"/>
+      <c r="AP16" s="23"/>
+      <c r="AQ16" s="23"/>
+      <c r="AR16" s="23"/>
+      <c r="AS16" s="23"/>
+      <c r="AT16" s="23"/>
+      <c r="AU16" s="23"/>
+      <c r="AV16" s="23"/>
+      <c r="AW16" s="23"/>
+      <c r="AX16" s="23"/>
+      <c r="AY16" s="23"/>
+      <c r="AZ16" s="23"/>
+      <c r="BA16" s="23"/>
+      <c r="BB16" s="23"/>
+      <c r="BC16" s="23"/>
+      <c r="BD16" s="23"/>
+      <c r="BE16" s="23"/>
+      <c r="BF16" s="23"/>
+      <c r="BG16" s="23"/>
+      <c r="BH16" s="23"/>
+      <c r="BI16" s="23"/>
+      <c r="BJ16" s="23"/>
+      <c r="BK16" s="23"/>
+      <c r="BL16" s="23"/>
+      <c r="BM16" s="24"/>
+      <c r="BN16" s="28"/>
+      <c r="BO16" s="29"/>
+      <c r="BP16" s="29"/>
+      <c r="BQ16" s="29"/>
+      <c r="BR16" s="29"/>
+      <c r="BS16" s="29"/>
+      <c r="BT16" s="29"/>
+      <c r="BU16" s="29"/>
+      <c r="BV16" s="29"/>
+      <c r="BW16" s="29"/>
+      <c r="BX16" s="29"/>
+      <c r="BY16" s="29"/>
+      <c r="BZ16" s="29"/>
+      <c r="CA16" s="29"/>
+      <c r="CB16" s="29"/>
+      <c r="CC16" s="29"/>
+      <c r="CD16" s="29"/>
+      <c r="CE16" s="29"/>
+      <c r="CF16" s="29"/>
+      <c r="CG16" s="29"/>
+      <c r="CH16" s="29"/>
+      <c r="CI16" s="29"/>
+      <c r="CJ16" s="29"/>
+      <c r="CK16" s="29"/>
+      <c r="CL16" s="29"/>
+      <c r="CM16" s="29"/>
+      <c r="CN16" s="29"/>
+      <c r="CO16" s="29"/>
+      <c r="CP16" s="29"/>
+      <c r="CQ16" s="29"/>
+      <c r="CR16" s="29"/>
+      <c r="CS16" s="29"/>
+      <c r="CT16" s="29"/>
+      <c r="CU16" s="29"/>
+      <c r="CV16" s="29"/>
+      <c r="CW16" s="29"/>
+      <c r="CX16" s="29"/>
+      <c r="CY16" s="29"/>
+      <c r="CZ16" s="29"/>
+      <c r="DA16" s="29"/>
+      <c r="DB16" s="29"/>
+      <c r="DC16" s="29"/>
+      <c r="DD16" s="29"/>
+      <c r="DE16" s="29"/>
+      <c r="DF16" s="29"/>
+      <c r="DG16" s="29"/>
+      <c r="DH16" s="29"/>
+      <c r="DI16" s="29"/>
+      <c r="DJ16" s="29"/>
+      <c r="DK16" s="29"/>
+      <c r="DL16" s="29"/>
+      <c r="DM16" s="29"/>
+      <c r="DN16" s="29"/>
+      <c r="DO16" s="29"/>
+      <c r="DP16" s="29"/>
+      <c r="DQ16" s="29"/>
+      <c r="DR16" s="29"/>
+      <c r="DS16" s="29"/>
+      <c r="DT16" s="29"/>
+      <c r="DU16" s="29"/>
+      <c r="DV16" s="29"/>
+      <c r="DW16" s="29"/>
+      <c r="DX16" s="29"/>
+      <c r="DY16" s="29"/>
+      <c r="DZ16" s="29"/>
+      <c r="EA16" s="29"/>
+      <c r="EB16" s="29"/>
+      <c r="EC16" s="29"/>
+      <c r="ED16" s="29"/>
+      <c r="EE16" s="29"/>
+      <c r="EF16" s="29"/>
+      <c r="EG16" s="29"/>
+      <c r="EH16" s="29"/>
+      <c r="EI16" s="29"/>
+      <c r="EJ16" s="29"/>
+      <c r="EK16" s="29"/>
+      <c r="EL16" s="29"/>
+      <c r="EM16" s="29"/>
+      <c r="EN16" s="29"/>
+      <c r="EO16" s="29"/>
+      <c r="EP16" s="29"/>
+      <c r="EQ16" s="29"/>
+      <c r="ER16" s="29"/>
+      <c r="ES16" s="29"/>
+      <c r="ET16" s="29"/>
+      <c r="EU16" s="29"/>
+      <c r="EV16" s="29"/>
+      <c r="EW16" s="29"/>
+      <c r="EX16" s="29"/>
+      <c r="EY16" s="29"/>
+      <c r="EZ16" s="29"/>
+      <c r="FA16" s="29"/>
+      <c r="FB16" s="29"/>
+      <c r="FC16" s="29"/>
+      <c r="FD16" s="29"/>
+      <c r="FE16" s="30"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
@@ -4094,7 +4097,7 @@
       <c r="A18" s="1"/>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="33" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4145,11 +4148,52 @@
     </row>
   </sheetData>
   <mergeCells count="67">
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="N3:T3"/>
-    <mergeCell ref="U3:X3"/>
-    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="DV12:DY12"/>
+    <mergeCell ref="DF11:DH11"/>
+    <mergeCell ref="DF12:DH12"/>
+    <mergeCell ref="DI12:DL12"/>
+    <mergeCell ref="DM12:DO12"/>
+    <mergeCell ref="DP12:DU12"/>
+    <mergeCell ref="CN10:CR10"/>
+    <mergeCell ref="CS10:CZ10"/>
+    <mergeCell ref="DA10:DE10"/>
+    <mergeCell ref="CT11:CW11"/>
+    <mergeCell ref="CX11:CZ11"/>
+    <mergeCell ref="DA11:DE11"/>
+    <mergeCell ref="CB9:CD9"/>
+    <mergeCell ref="CE9:CF9"/>
+    <mergeCell ref="CG9:CJ9"/>
+    <mergeCell ref="CK9:CM9"/>
+    <mergeCell ref="CG10:CM10"/>
+    <mergeCell ref="BL7:BU7"/>
+    <mergeCell ref="BV7:CA7"/>
+    <mergeCell ref="BL8:BO8"/>
+    <mergeCell ref="BP8:BR8"/>
+    <mergeCell ref="BS8:BX8"/>
+    <mergeCell ref="BY8:CB8"/>
+    <mergeCell ref="AX7:BE7"/>
+    <mergeCell ref="BF7:BK7"/>
+    <mergeCell ref="AQ5:AU5"/>
+    <mergeCell ref="AI6:AL6"/>
+    <mergeCell ref="AM6:AO6"/>
+    <mergeCell ref="AP6:AT6"/>
+    <mergeCell ref="AU6:AW6"/>
+    <mergeCell ref="EH14:EO14"/>
+    <mergeCell ref="EP14:EW14"/>
+    <mergeCell ref="EX14:FE14"/>
+    <mergeCell ref="B15:BM16"/>
+    <mergeCell ref="BN15:FE16"/>
+    <mergeCell ref="BV14:CC14"/>
+    <mergeCell ref="CD14:CK14"/>
+    <mergeCell ref="CL14:CS14"/>
+    <mergeCell ref="CT14:DA14"/>
+    <mergeCell ref="DB14:DI14"/>
+    <mergeCell ref="DJ14:DQ14"/>
+    <mergeCell ref="B14:I14"/>
+    <mergeCell ref="J14:Q14"/>
+    <mergeCell ref="R14:Y14"/>
+    <mergeCell ref="Z14:AG14"/>
+    <mergeCell ref="AH14:AO14"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:L2"/>
@@ -4166,52 +4210,11 @@
     <mergeCell ref="Y5:AD5"/>
     <mergeCell ref="AE5:AH5"/>
     <mergeCell ref="AI5:AP5"/>
-    <mergeCell ref="EH14:EO14"/>
-    <mergeCell ref="EP14:EW14"/>
-    <mergeCell ref="EX14:FE14"/>
-    <mergeCell ref="B15:BM16"/>
-    <mergeCell ref="BN15:FE16"/>
-    <mergeCell ref="BV14:CC14"/>
-    <mergeCell ref="CD14:CK14"/>
-    <mergeCell ref="CL14:CS14"/>
-    <mergeCell ref="CT14:DA14"/>
-    <mergeCell ref="DB14:DI14"/>
-    <mergeCell ref="DJ14:DQ14"/>
-    <mergeCell ref="B14:I14"/>
-    <mergeCell ref="J14:Q14"/>
-    <mergeCell ref="R14:Y14"/>
-    <mergeCell ref="Z14:AG14"/>
-    <mergeCell ref="AH14:AO14"/>
-    <mergeCell ref="AX7:BE7"/>
-    <mergeCell ref="BF7:BK7"/>
-    <mergeCell ref="AQ5:AU5"/>
-    <mergeCell ref="AI6:AL6"/>
-    <mergeCell ref="AM6:AO6"/>
-    <mergeCell ref="AP6:AT6"/>
-    <mergeCell ref="AU6:AW6"/>
-    <mergeCell ref="BL7:BU7"/>
-    <mergeCell ref="BV7:CA7"/>
-    <mergeCell ref="BL8:BO8"/>
-    <mergeCell ref="BP8:BR8"/>
-    <mergeCell ref="BS8:BX8"/>
-    <mergeCell ref="BY8:CB8"/>
-    <mergeCell ref="CB9:CD9"/>
-    <mergeCell ref="CE9:CF9"/>
-    <mergeCell ref="CG9:CJ9"/>
-    <mergeCell ref="CK9:CM9"/>
-    <mergeCell ref="CG10:CM10"/>
-    <mergeCell ref="CN10:CR10"/>
-    <mergeCell ref="CS10:CZ10"/>
-    <mergeCell ref="DA10:DE10"/>
-    <mergeCell ref="CT11:CW11"/>
-    <mergeCell ref="CX11:CZ11"/>
-    <mergeCell ref="DA11:DE11"/>
-    <mergeCell ref="DV12:DY12"/>
-    <mergeCell ref="DF11:DH11"/>
-    <mergeCell ref="DF12:DH12"/>
-    <mergeCell ref="DI12:DL12"/>
-    <mergeCell ref="DM12:DO12"/>
-    <mergeCell ref="DP12:DU12"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="N3:T3"/>
+    <mergeCell ref="U3:X3"/>
+    <mergeCell ref="M2:O2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
